--- a/文档/DB修改记录.xlsx
+++ b/文档/DB修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>袁先明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rent_BasicAttributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋属性表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -606,6 +614,18 @@
     <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
